--- a/testing_results/inference_time_tai50x20.xlsx
+++ b/testing_results/inference_time_tai50x20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18.67853667736053</v>
+        <v>12.03831224441528</v>
       </c>
       <c r="B2" t="n">
-        <v>17.93290646076202</v>
+        <v>11.47129292488098</v>
       </c>
       <c r="C2" t="n">
-        <v>17.81075234413147</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.19545087814331</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19.1106246471405</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.60659182071686</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.72764165401459</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.32329361438751</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18.53943514823914</v>
-      </c>
-      <c r="J2" t="n">
-        <v>17.89497475624085</v>
-      </c>
-      <c r="K2" t="n">
-        <v>19.33729393482208</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.01498203277588</v>
-      </c>
-      <c r="M2" t="n">
-        <v>18.08231468200684</v>
-      </c>
-      <c r="N2" t="n">
-        <v>280.2486596822739</v>
+        <v>172.3302518367767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37.93092029094696</v>
+        <v>24.0658762216568</v>
       </c>
       <c r="B3" t="n">
-        <v>38.6010812997818</v>
+        <v>22.99069886207581</v>
       </c>
       <c r="C3" t="n">
-        <v>37.14814636707306</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.12796368598938</v>
-      </c>
-      <c r="E3" t="n">
-        <v>36.67191400527954</v>
-      </c>
-      <c r="F3" t="n">
-        <v>37.41460094451904</v>
-      </c>
-      <c r="G3" t="n">
-        <v>38.00004618167877</v>
-      </c>
-      <c r="H3" t="n">
-        <v>37.57502782344818</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38.34858281612397</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38.39242618083954</v>
-      </c>
-      <c r="K3" t="n">
-        <v>37.77608671188354</v>
-      </c>
-      <c r="L3" t="n">
-        <v>38.16185464859009</v>
-      </c>
-      <c r="M3" t="n">
-        <v>38.16320254802704</v>
-      </c>
-      <c r="N3" t="n">
-        <v>567.214483499527</v>
+        <v>341.8038719654083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73.24247407913208</v>
+        <v>48.05738584995269</v>
       </c>
       <c r="B4" t="n">
-        <v>76.34496574401855</v>
+        <v>46.62746188640595</v>
       </c>
       <c r="C4" t="n">
-        <v>80.23481447696686</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75.85752413272857</v>
-      </c>
-      <c r="E4" t="n">
-        <v>76.42244360446929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>73.70115053653717</v>
-      </c>
-      <c r="G4" t="n">
-        <v>76.87780578136444</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75.98224368095399</v>
-      </c>
-      <c r="I4" t="n">
-        <v>74.52507710456848</v>
-      </c>
-      <c r="J4" t="n">
-        <v>74.91530208587646</v>
-      </c>
-      <c r="K4" t="n">
-        <v>77.3125171661377</v>
-      </c>
-      <c r="L4" t="n">
-        <v>73.5797027349472</v>
-      </c>
-      <c r="M4" t="n">
-        <v>79.56911113262177</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1013.222328734398</v>
+        <v>670.838569355011</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>120.2844439029694</v>
+      </c>
+      <c r="B5" t="n">
+        <v>119.7989108800888</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2880.621622133255</v>
       </c>
     </row>
   </sheetData>
